--- a/Code/Results/Cases/Case_5_95/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_95/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.361961287415738</v>
+        <v>3.797283712024353</v>
       </c>
       <c r="C2">
-        <v>0.4848105480249387</v>
+        <v>0.2129906763635177</v>
       </c>
       <c r="D2">
-        <v>0.1241804865131826</v>
+        <v>0.03761025079592173</v>
       </c>
       <c r="E2">
-        <v>0.01604476148155309</v>
+        <v>0.04996238046309648</v>
       </c>
       <c r="F2">
-        <v>7.182927734634859</v>
+        <v>6.637023374826896</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1295737520075804</v>
+        <v>0.1855533544096986</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1793966204632085</v>
+        <v>0.368852731550291</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.960348133187836</v>
+        <v>3.743424325023341</v>
       </c>
       <c r="C3">
-        <v>0.4141283204423019</v>
+        <v>0.1987409035748442</v>
       </c>
       <c r="D3">
-        <v>0.1076379472653599</v>
+        <v>0.03293470210925875</v>
       </c>
       <c r="E3">
-        <v>0.0160788755094956</v>
+        <v>0.05007737893542752</v>
       </c>
       <c r="F3">
-        <v>6.510791015079889</v>
+        <v>6.472368299668346</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1233190047109431</v>
+        <v>0.1839621642882179</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.163488764328946</v>
+        <v>0.3694447346959393</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.722383974040724</v>
+        <v>3.71342673606307</v>
       </c>
       <c r="C4">
-        <v>0.3719633482377276</v>
+        <v>0.1902298304182182</v>
       </c>
       <c r="D4">
-        <v>0.09773279267017188</v>
+        <v>0.0300586156912459</v>
       </c>
       <c r="E4">
-        <v>0.01610745519608231</v>
+        <v>0.05015316951051763</v>
       </c>
       <c r="F4">
-        <v>6.110498511309089</v>
+        <v>6.373076997328184</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1196104876170629</v>
+        <v>0.1830008451607483</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1542181908714824</v>
+        <v>0.3700680739765332</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.627327599235457</v>
+        <v>3.701973054973564</v>
       </c>
       <c r="C5">
-        <v>0.3550450166125927</v>
+        <v>0.1868208218200778</v>
       </c>
       <c r="D5">
-        <v>0.09374927309542613</v>
+        <v>0.02888500651381776</v>
       </c>
       <c r="E5">
-        <v>0.01612091008081945</v>
+        <v>0.05018536028494791</v>
       </c>
       <c r="F5">
-        <v>5.950084054940049</v>
+        <v>6.333061975047286</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1181280752780474</v>
+        <v>0.1826129447341422</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1505536446467275</v>
+        <v>0.3703874293020917</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.611652393911186</v>
+        <v>3.700117665120445</v>
       </c>
       <c r="C6">
-        <v>0.3522504507493807</v>
+        <v>0.1862583239029618</v>
       </c>
       <c r="D6">
-        <v>0.09309072339254953</v>
+        <v>0.02869002677718413</v>
       </c>
       <c r="E6">
-        <v>0.01612325053556185</v>
+        <v>0.05019078446750996</v>
       </c>
       <c r="F6">
-        <v>5.923599722944914</v>
+        <v>6.326444289194001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1178835455165483</v>
+        <v>0.1825487635541343</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1499516754627663</v>
+        <v>0.3704444044263155</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.721094567709713</v>
+        <v>3.71326915018534</v>
       </c>
       <c r="C7">
-        <v>0.3717341689426803</v>
+        <v>0.1901836159364052</v>
       </c>
       <c r="D7">
-        <v>0.09767886832149486</v>
+        <v>0.03004279472017402</v>
       </c>
       <c r="E7">
-        <v>0.01610762946610933</v>
+        <v>0.05015359835699429</v>
       </c>
       <c r="F7">
-        <v>6.108324652602619</v>
+        <v>6.372535540803597</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1195903839162327</v>
+        <v>0.1829955983602183</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1541683252879693</v>
+        <v>0.3700721163523752</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.221532348996618</v>
+        <v>3.778074096968737</v>
       </c>
       <c r="C8">
-        <v>0.4601536505218462</v>
+        <v>0.2080275093984483</v>
       </c>
       <c r="D8">
-        <v>0.1184176427151584</v>
+        <v>0.0359990639848462</v>
       </c>
       <c r="E8">
-        <v>0.01605486739767215</v>
+        <v>0.05000095820822459</v>
       </c>
       <c r="F8">
-        <v>6.948339368337969</v>
+        <v>6.579870528619097</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1273869732270256</v>
+        <v>0.1850013987652517</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1738010002425483</v>
+        <v>0.369002919556408</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.284559685335296</v>
+        <v>3.929640425085154</v>
       </c>
       <c r="C9">
-        <v>0.6457497825223584</v>
+        <v>0.2449407732085263</v>
       </c>
       <c r="D9">
-        <v>0.1616278337380948</v>
+        <v>0.04764926812912051</v>
       </c>
       <c r="E9">
-        <v>0.01601802582714862</v>
+        <v>0.04974262354307424</v>
       </c>
       <c r="F9">
-        <v>8.715255123877739</v>
+        <v>7.001160671531125</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1439471130157841</v>
+        <v>0.1890637728072875</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2168521491978339</v>
+        <v>0.3689688983774317</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.137128951679301</v>
+        <v>4.056096055097328</v>
       </c>
       <c r="C10">
-        <v>0.7935485257064272</v>
+        <v>0.2732782103541354</v>
       </c>
       <c r="D10">
-        <v>0.1958115143989687</v>
+        <v>0.05620750908681771</v>
       </c>
       <c r="E10">
-        <v>0.01604210715102916</v>
+        <v>0.0495776589012169</v>
       </c>
       <c r="F10">
-        <v>10.1211047687874</v>
+        <v>7.320188397898789</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1572560063684776</v>
+        <v>0.1921337321437022</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2522615150439265</v>
+        <v>0.3702038565428865</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.546592154280631</v>
+        <v>4.116943542336003</v>
       </c>
       <c r="C11">
-        <v>0.8643947044755862</v>
+        <v>0.2864443681193052</v>
       </c>
       <c r="D11">
-        <v>0.2121377542184462</v>
+        <v>0.06010438527002293</v>
       </c>
       <c r="E11">
-        <v>0.01606731990274413</v>
+        <v>0.04950797286001829</v>
       </c>
       <c r="F11">
-        <v>10.79364703541165</v>
+        <v>7.467506660872345</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1636602389601194</v>
+        <v>0.1935503407980192</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2694714398705713</v>
+        <v>0.3710399777546769</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.705384016449955</v>
+        <v>4.140465708502859</v>
       </c>
       <c r="C12">
-        <v>0.8918591590524443</v>
+        <v>0.29147044722788</v>
       </c>
       <c r="D12">
-        <v>0.2184570695581129</v>
+        <v>0.06158085589466111</v>
       </c>
       <c r="E12">
-        <v>0.01607926439654594</v>
+        <v>0.04948235255403099</v>
       </c>
       <c r="F12">
-        <v>11.05405714379151</v>
+        <v>7.523616571598495</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1661461718127697</v>
+        <v>0.1940897751050272</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2761759844735394</v>
+        <v>0.3713960968964329</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.67100779122751</v>
+        <v>4.135378370721355</v>
       </c>
       <c r="C13">
-        <v>0.8859137584137216</v>
+        <v>0.2903861848172653</v>
       </c>
       <c r="D13">
-        <v>0.2170895443676244</v>
+        <v>0.06126283113117381</v>
       </c>
       <c r="E13">
-        <v>0.01607657887199598</v>
+        <v>0.04948783620795982</v>
       </c>
       <c r="F13">
-        <v>10.99770042176885</v>
+        <v>7.51151776368755</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1656078891370356</v>
+        <v>0.1939734632978514</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2747231750759767</v>
+        <v>0.3713176427160363</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.559577117874426</v>
+        <v>4.118869077745671</v>
       </c>
       <c r="C14">
-        <v>0.8666407065592239</v>
+        <v>0.2868570538071538</v>
       </c>
       <c r="D14">
-        <v>0.2126547408609127</v>
+        <v>0.06022583759840927</v>
       </c>
       <c r="E14">
-        <v>0.01606825224985675</v>
+        <v>0.04950584967608085</v>
       </c>
       <c r="F14">
-        <v>10.81494990382254</v>
+        <v>7.472116320027283</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1638634725433903</v>
+        <v>0.1935946597192668</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2700190813633867</v>
+        <v>0.3710684839816452</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.491830034553573</v>
+        <v>4.108819325644106</v>
       </c>
       <c r="C15">
-        <v>0.8549221910377298</v>
+        <v>0.2847006353738379</v>
       </c>
       <c r="D15">
-        <v>0.20995696423347</v>
+        <v>0.05959076265976648</v>
       </c>
       <c r="E15">
-        <v>0.016063475861684</v>
+        <v>0.04951698343858302</v>
       </c>
       <c r="F15">
-        <v>10.70378903651516</v>
+        <v>7.448024209400728</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1628032290390635</v>
+        <v>0.193363024947999</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2671630697913656</v>
+        <v>0.3709210124721523</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.110855605774361</v>
+        <v>4.052186617698112</v>
       </c>
       <c r="C16">
-        <v>0.7890007270554804</v>
+        <v>0.2724233747541405</v>
       </c>
       <c r="D16">
-        <v>0.1947622269183142</v>
+        <v>0.05595293696956105</v>
       </c>
       <c r="E16">
-        <v>0.0160407741057802</v>
+        <v>0.04958232066947577</v>
       </c>
       <c r="F16">
-        <v>10.07789693434009</v>
+        <v>7.31060562465683</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.15684536636563</v>
+        <v>0.1920415665983626</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2511613373309842</v>
+        <v>0.3701547384105908</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.883088253240089</v>
+        <v>4.018297144405551</v>
       </c>
       <c r="C17">
-        <v>0.749561357653505</v>
+        <v>0.2649627157581733</v>
       </c>
       <c r="D17">
-        <v>0.1856560383901353</v>
+        <v>0.0537223902954338</v>
       </c>
       <c r="E17">
-        <v>0.01603072062156441</v>
+        <v>0.04962377355302527</v>
       </c>
       <c r="F17">
-        <v>9.703032854805713</v>
+        <v>7.226871022434409</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1532868827407725</v>
+        <v>0.1912361122478003</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2416459997430138</v>
+        <v>0.3697549504012443</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.754074044736171</v>
+        <v>3.999117340065652</v>
       </c>
       <c r="C18">
-        <v>0.727208598359681</v>
+        <v>0.2606974098868022</v>
       </c>
       <c r="D18">
-        <v>0.1804896613789708</v>
+        <v>0.05243976932851524</v>
       </c>
       <c r="E18">
-        <v>0.01602625514519895</v>
+        <v>0.04964812051987511</v>
       </c>
       <c r="F18">
-        <v>9.490459678978851</v>
+        <v>7.178914792432607</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1512723453416029</v>
+        <v>0.1907747185416753</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2362747227343363</v>
+        <v>0.3695508210359577</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.710716911324539</v>
+        <v>3.992676980278986</v>
       </c>
       <c r="C19">
-        <v>0.7196941126263141</v>
+        <v>0.259257670890122</v>
       </c>
       <c r="D19">
-        <v>0.1787519586171129</v>
+        <v>0.05200554426009774</v>
       </c>
       <c r="E19">
-        <v>0.01602496016080268</v>
+        <v>0.0496564506741124</v>
       </c>
       <c r="F19">
-        <v>9.41898087214409</v>
+        <v>7.162712705277841</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1505955020196694</v>
+        <v>0.190618818541445</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.234472770909349</v>
+        <v>0.3694861392225022</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.907124198956296</v>
+        <v>4.021872371587619</v>
       </c>
       <c r="C20">
-        <v>0.7537246391005397</v>
+        <v>0.265754233046124</v>
       </c>
       <c r="D20">
-        <v>0.1866178640923692</v>
+        <v>0.05395979959129704</v>
       </c>
       <c r="E20">
-        <v>0.01603165227682213</v>
+        <v>0.04961930863833097</v>
       </c>
       <c r="F20">
-        <v>9.742616727319927</v>
+        <v>7.235763362737998</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.153662286441218</v>
+        <v>0.191321658635303</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2426482062057147</v>
+        <v>0.3697948361025141</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.592199959436869</v>
+        <v>4.123705192433818</v>
       </c>
       <c r="C21">
-        <v>0.8722833387692503</v>
+        <v>0.2878925442055902</v>
       </c>
       <c r="D21">
-        <v>0.2139534071254445</v>
+        <v>0.0605304035734946</v>
       </c>
       <c r="E21">
-        <v>0.01607062973367879</v>
+        <v>0.04950053784900754</v>
       </c>
       <c r="F21">
-        <v>10.86846375936051</v>
+        <v>7.483680625061822</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1643741065160285</v>
+        <v>0.1937058413396144</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.27139543788509</v>
+        <v>0.3711405955453415</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.062107444676826</v>
+        <v>4.19306119409049</v>
       </c>
       <c r="C22">
-        <v>0.9535517752145495</v>
+        <v>0.3025967111972818</v>
       </c>
       <c r="D22">
-        <v>0.2326325031159087</v>
+        <v>0.06482951492854738</v>
       </c>
       <c r="E22">
-        <v>0.01611030375220812</v>
+        <v>0.04942739151972331</v>
       </c>
       <c r="F22">
-        <v>11.63829190312089</v>
+        <v>7.647599656653369</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1717356769660228</v>
+        <v>0.1952815536457706</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2912944276420006</v>
+        <v>0.3722503804281985</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.809038495555569</v>
+        <v>4.155787212221981</v>
       </c>
       <c r="C23">
-        <v>0.9097857038589723</v>
+        <v>0.2947270187342497</v>
       </c>
       <c r="D23">
-        <v>0.2225789079655698</v>
+        <v>0.06253446271904295</v>
       </c>
       <c r="E23">
-        <v>0.01608769119616482</v>
+        <v>0.04946602208915696</v>
       </c>
       <c r="F23">
-        <v>11.22392874739165</v>
+        <v>7.559937092225255</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.167769633200578</v>
+        <v>0.1944389275098857</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2805611019870469</v>
+        <v>0.3716369810954916</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.896251574979203</v>
+        <v>4.020255065615856</v>
       </c>
       <c r="C24">
-        <v>0.7518414268054983</v>
+        <v>0.2653963136120581</v>
       </c>
       <c r="D24">
-        <v>0.1861828099564065</v>
+        <v>0.05385246764851104</v>
       </c>
       <c r="E24">
-        <v>0.0160312270064944</v>
+        <v>0.04962132562146471</v>
       </c>
       <c r="F24">
-        <v>9.724711769308101</v>
+        <v>7.231742563504099</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1534924697538713</v>
+        <v>0.1912829779115981</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2421948017396289</v>
+        <v>0.3697767236869822</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.986202509466011</v>
+        <v>3.88599897584669</v>
       </c>
       <c r="C25">
-        <v>0.5938615274655774</v>
+        <v>0.234744377172774</v>
       </c>
       <c r="D25">
-        <v>0.1495829881440045</v>
+        <v>0.04449903111741094</v>
       </c>
       <c r="E25">
-        <v>0.01601990429271349</v>
+        <v>0.04980813781525484</v>
       </c>
       <c r="F25">
-        <v>8.22118490467841</v>
+        <v>6.885560666850381</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1392966225073451</v>
+        <v>0.1879502952349554</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2046244815632008</v>
+        <v>0.3687570434240541</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_95/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_95/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.797283712024353</v>
+        <v>3.361961287415966</v>
       </c>
       <c r="C2">
-        <v>0.2129906763635177</v>
+        <v>0.4848105480252798</v>
       </c>
       <c r="D2">
-        <v>0.03761025079592173</v>
+        <v>0.1241804865133957</v>
       </c>
       <c r="E2">
-        <v>0.04996238046309648</v>
+        <v>0.01604476148157441</v>
       </c>
       <c r="F2">
-        <v>6.637023374826896</v>
+        <v>7.182927734634916</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1855533544096986</v>
+        <v>0.1295737520074383</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.368852731550291</v>
+        <v>0.1793966204632653</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.743424325023341</v>
+        <v>2.960348133187892</v>
       </c>
       <c r="C3">
-        <v>0.1987409035748442</v>
+        <v>0.4141283204429556</v>
       </c>
       <c r="D3">
-        <v>0.03293470210925875</v>
+        <v>0.1076379472652462</v>
       </c>
       <c r="E3">
-        <v>0.05007737893542752</v>
+        <v>0.01607887550952403</v>
       </c>
       <c r="F3">
-        <v>6.472368299668346</v>
+        <v>6.51079101507986</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1839621642882179</v>
+        <v>0.1233190047110924</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3694447346959393</v>
+        <v>0.163488764328882</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.71342673606307</v>
+        <v>2.722383974040895</v>
       </c>
       <c r="C4">
-        <v>0.1902298304182182</v>
+        <v>0.3719633482372728</v>
       </c>
       <c r="D4">
-        <v>0.0300586156912459</v>
+        <v>0.09773279267037083</v>
       </c>
       <c r="E4">
-        <v>0.05015316951051763</v>
+        <v>0.01610745519605478</v>
       </c>
       <c r="F4">
-        <v>6.373076997328184</v>
+        <v>6.110498511309117</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1830008451607483</v>
+        <v>0.1196104876171979</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3700680739765332</v>
+        <v>0.1542181908714326</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.701973054973564</v>
+        <v>2.627327599235457</v>
       </c>
       <c r="C5">
-        <v>0.1868208218200778</v>
+        <v>0.3550450166125074</v>
       </c>
       <c r="D5">
-        <v>0.02888500651381776</v>
+        <v>0.09374927309541192</v>
       </c>
       <c r="E5">
-        <v>0.05018536028494791</v>
+        <v>0.01612091008069716</v>
       </c>
       <c r="F5">
-        <v>6.333061975047286</v>
+        <v>5.950084054940135</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1826129447341422</v>
+        <v>0.1181280752779443</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3703874293020917</v>
+        <v>0.1505536446468625</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.700117665120445</v>
+        <v>2.611652393911299</v>
       </c>
       <c r="C6">
-        <v>0.1862583239029618</v>
+        <v>0.3522504507497217</v>
       </c>
       <c r="D6">
-        <v>0.02869002677718413</v>
+        <v>0.09309072339272007</v>
       </c>
       <c r="E6">
-        <v>0.05019078446750996</v>
+        <v>0.01612325053560659</v>
       </c>
       <c r="F6">
-        <v>6.326444289194001</v>
+        <v>5.923599722944914</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1825487635541343</v>
+        <v>0.1178835455164702</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3704444044263155</v>
+        <v>0.1499516754627592</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.71326915018534</v>
+        <v>2.721094567709599</v>
       </c>
       <c r="C7">
-        <v>0.1901836159364052</v>
+        <v>0.3717341689433624</v>
       </c>
       <c r="D7">
-        <v>0.03004279472017402</v>
+        <v>0.09767886832123907</v>
       </c>
       <c r="E7">
-        <v>0.05015359835699429</v>
+        <v>0.01610762946610939</v>
       </c>
       <c r="F7">
-        <v>6.372535540803597</v>
+        <v>6.108324652602562</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1829955983602183</v>
+        <v>0.1195903839163464</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3700721163523752</v>
+        <v>0.1541683252878059</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.778074096968737</v>
+        <v>3.221532348996618</v>
       </c>
       <c r="C8">
-        <v>0.2080275093984483</v>
+        <v>0.460153650521363</v>
       </c>
       <c r="D8">
-        <v>0.0359990639848462</v>
+        <v>0.1184176427153432</v>
       </c>
       <c r="E8">
-        <v>0.05000095820822459</v>
+        <v>0.01605486739761353</v>
       </c>
       <c r="F8">
-        <v>6.579870528619097</v>
+        <v>6.948339368338054</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1850013987652517</v>
+        <v>0.1273869732270896</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.369002919556408</v>
+        <v>0.173801000242598</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.929640425085154</v>
+        <v>4.284559685335466</v>
       </c>
       <c r="C9">
-        <v>0.2449407732085263</v>
+        <v>0.6457497825223868</v>
       </c>
       <c r="D9">
-        <v>0.04764926812912051</v>
+        <v>0.1616278337376684</v>
       </c>
       <c r="E9">
-        <v>0.04974262354307424</v>
+        <v>0.01601802582720924</v>
       </c>
       <c r="F9">
-        <v>7.001160671531125</v>
+        <v>8.715255123877739</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1890637728072875</v>
+        <v>0.1439471130158054</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3689688983774317</v>
+        <v>0.2168521491977629</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.056096055097328</v>
+        <v>5.137128951679188</v>
       </c>
       <c r="C10">
-        <v>0.2732782103541354</v>
+        <v>0.7935485257064272</v>
       </c>
       <c r="D10">
-        <v>0.05620750908681771</v>
+        <v>0.1958115143989403</v>
       </c>
       <c r="E10">
-        <v>0.0495776589012169</v>
+        <v>0.01604210715101806</v>
       </c>
       <c r="F10">
-        <v>7.320188397898789</v>
+        <v>10.12110476878729</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1921337321437022</v>
+        <v>0.1572560063685344</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3702038565428865</v>
+        <v>0.2522615150437559</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.116943542336003</v>
+        <v>5.546592154280802</v>
       </c>
       <c r="C11">
-        <v>0.2864443681193052</v>
+        <v>0.8643947044760694</v>
       </c>
       <c r="D11">
-        <v>0.06010438527002293</v>
+        <v>0.2121377542183467</v>
       </c>
       <c r="E11">
-        <v>0.04950797286001829</v>
+        <v>0.01606731990284227</v>
       </c>
       <c r="F11">
-        <v>7.467506660872345</v>
+        <v>10.79364703541142</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1935503407980192</v>
+        <v>0.1636602389602544</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3710399777546769</v>
+        <v>0.2694714398705997</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.140465708502859</v>
+        <v>5.705384016449955</v>
       </c>
       <c r="C12">
-        <v>0.29147044722788</v>
+        <v>0.891859159052359</v>
       </c>
       <c r="D12">
-        <v>0.06158085589466111</v>
+        <v>0.218457069558454</v>
       </c>
       <c r="E12">
-        <v>0.04948235255403099</v>
+        <v>0.01607926439660812</v>
       </c>
       <c r="F12">
-        <v>7.523616571598495</v>
+        <v>11.05405714379162</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1940897751050272</v>
+        <v>0.1661461718128265</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3713960968964329</v>
+        <v>0.2761759844738094</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.135378370721355</v>
+        <v>5.671007791227794</v>
       </c>
       <c r="C13">
-        <v>0.2903861848172653</v>
+        <v>0.8859137584142331</v>
       </c>
       <c r="D13">
-        <v>0.06126283113117381</v>
+        <v>0.2170895443676102</v>
       </c>
       <c r="E13">
-        <v>0.04948783620795982</v>
+        <v>0.01607657887199454</v>
       </c>
       <c r="F13">
-        <v>7.51151776368755</v>
+        <v>10.99770042176891</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1939734632978514</v>
+        <v>0.1656078891370356</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3713176427160363</v>
+        <v>0.274723175076204</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.118869077745671</v>
+        <v>5.559577117874085</v>
       </c>
       <c r="C14">
-        <v>0.2868570538071538</v>
+        <v>0.8666407065596786</v>
       </c>
       <c r="D14">
-        <v>0.06022583759840927</v>
+        <v>0.2126547408607564</v>
       </c>
       <c r="E14">
-        <v>0.04950584967608085</v>
+        <v>0.0160682522498844</v>
       </c>
       <c r="F14">
-        <v>7.472116320027283</v>
+        <v>10.81494990382237</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1935946597192668</v>
+        <v>0.1638634725433405</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3710684839816452</v>
+        <v>0.2700190813631878</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.108819325644106</v>
+        <v>5.491830034553743</v>
       </c>
       <c r="C15">
-        <v>0.2847006353738379</v>
+        <v>0.8549221910372751</v>
       </c>
       <c r="D15">
-        <v>0.05959076265976648</v>
+        <v>0.2099569642336832</v>
       </c>
       <c r="E15">
-        <v>0.04951698343858302</v>
+        <v>0.01606347586168733</v>
       </c>
       <c r="F15">
-        <v>7.448024209400728</v>
+        <v>10.70378903651516</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.193363024947999</v>
+        <v>0.1628032290390919</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3709210124721523</v>
+        <v>0.2671630697913798</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.052186617698112</v>
+        <v>5.110855605774475</v>
       </c>
       <c r="C16">
-        <v>0.2724233747541405</v>
+        <v>0.7890007270554804</v>
       </c>
       <c r="D16">
-        <v>0.05595293696956105</v>
+        <v>0.1947622269183142</v>
       </c>
       <c r="E16">
-        <v>0.04958232066947577</v>
+        <v>0.01604077410578131</v>
       </c>
       <c r="F16">
-        <v>7.31060562465683</v>
+        <v>10.07789693434009</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1920415665983626</v>
+        <v>0.1568453663655163</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3701547384105908</v>
+        <v>0.2511613373310979</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.018297144405551</v>
+        <v>4.883088253239976</v>
       </c>
       <c r="C17">
-        <v>0.2649627157581733</v>
+        <v>0.7495613576534481</v>
       </c>
       <c r="D17">
-        <v>0.0537223902954338</v>
+        <v>0.1856560383901069</v>
       </c>
       <c r="E17">
-        <v>0.04962377355302527</v>
+        <v>0.01603072062166533</v>
       </c>
       <c r="F17">
-        <v>7.226871022434409</v>
+        <v>9.703032854805713</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1912361122478003</v>
+        <v>0.1532868827406091</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3697549504012443</v>
+        <v>0.2416459997430849</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.999117340065652</v>
+        <v>4.754074044736569</v>
       </c>
       <c r="C18">
-        <v>0.2606974098868022</v>
+        <v>0.7272085983606189</v>
       </c>
       <c r="D18">
-        <v>0.05243976932851524</v>
+        <v>0.1804896613785729</v>
       </c>
       <c r="E18">
-        <v>0.04964812051987511</v>
+        <v>0.01602625514522116</v>
       </c>
       <c r="F18">
-        <v>7.178914792432607</v>
+        <v>9.490459678978766</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1907747185416753</v>
+        <v>0.1512723453413827</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3695508210359577</v>
+        <v>0.2362747227344499</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.992676980278986</v>
+        <v>4.710716911324596</v>
       </c>
       <c r="C19">
-        <v>0.259257670890122</v>
+        <v>0.7196941126266552</v>
       </c>
       <c r="D19">
-        <v>0.05200554426009774</v>
+        <v>0.178751958617255</v>
       </c>
       <c r="E19">
-        <v>0.0496564506741124</v>
+        <v>0.01602496016071342</v>
       </c>
       <c r="F19">
-        <v>7.162712705277841</v>
+        <v>9.418980872144061</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.190618818541445</v>
+        <v>0.1505955020200673</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3694861392225022</v>
+        <v>0.2344727709092922</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.021872371587619</v>
+        <v>4.907124198956353</v>
       </c>
       <c r="C20">
-        <v>0.265754233046124</v>
+        <v>0.7537246391000849</v>
       </c>
       <c r="D20">
-        <v>0.05395979959129704</v>
+        <v>0.186617864092014</v>
       </c>
       <c r="E20">
-        <v>0.04961930863833097</v>
+        <v>0.01603165227690773</v>
       </c>
       <c r="F20">
-        <v>7.235763362737998</v>
+        <v>9.742616727319842</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.191321658635303</v>
+        <v>0.1536622864413602</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3697948361025141</v>
+        <v>0.2426482062056579</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.123705192433818</v>
+        <v>5.592199959436755</v>
       </c>
       <c r="C21">
-        <v>0.2878925442055902</v>
+        <v>0.8722833387691651</v>
       </c>
       <c r="D21">
-        <v>0.0605304035734946</v>
+        <v>0.2139534071256293</v>
       </c>
       <c r="E21">
-        <v>0.04950053784900754</v>
+        <v>0.01607062973366502</v>
       </c>
       <c r="F21">
-        <v>7.483680625061822</v>
+        <v>10.86846375936051</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1937058413396144</v>
+        <v>0.164374106516064</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3711405955453415</v>
+        <v>0.2713954378853458</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.19306119409049</v>
+        <v>6.062107444676826</v>
       </c>
       <c r="C22">
-        <v>0.3025967111972818</v>
+        <v>0.9535517752144642</v>
       </c>
       <c r="D22">
-        <v>0.06482951492854738</v>
+        <v>0.2326325031156244</v>
       </c>
       <c r="E22">
-        <v>0.04942739151972331</v>
+        <v>0.01611030375210643</v>
       </c>
       <c r="F22">
-        <v>7.647599656653369</v>
+        <v>11.638291903121</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1952815536457706</v>
+        <v>0.1717356769659162</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3722503804281985</v>
+        <v>0.2912944276420575</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.155787212221981</v>
+        <v>5.809038495555285</v>
       </c>
       <c r="C23">
-        <v>0.2947270187342497</v>
+        <v>0.9097857038589723</v>
       </c>
       <c r="D23">
-        <v>0.06253446271904295</v>
+        <v>0.2225789079656266</v>
       </c>
       <c r="E23">
-        <v>0.04946602208915696</v>
+        <v>0.01608769119618803</v>
       </c>
       <c r="F23">
-        <v>7.559937092225255</v>
+        <v>11.22392874739143</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1944389275098857</v>
+        <v>0.1677696332007059</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3716369810954916</v>
+        <v>0.2805611019868053</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.020255065615856</v>
+        <v>4.896251574979544</v>
       </c>
       <c r="C24">
-        <v>0.2653963136120581</v>
+        <v>0.7518414268050435</v>
       </c>
       <c r="D24">
-        <v>0.05385246764851104</v>
+        <v>0.1861828099557528</v>
       </c>
       <c r="E24">
-        <v>0.04962132562146471</v>
+        <v>0.01603122700645199</v>
       </c>
       <c r="F24">
-        <v>7.231742563504099</v>
+        <v>9.724711769308016</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1912829779115981</v>
+        <v>0.1534924697539495</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3697767236869822</v>
+        <v>0.2421948017396147</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.88599897584669</v>
+        <v>3.986202509466011</v>
       </c>
       <c r="C25">
-        <v>0.234744377172774</v>
+        <v>0.5938615274660322</v>
       </c>
       <c r="D25">
-        <v>0.04449903111741094</v>
+        <v>0.1495829881437913</v>
       </c>
       <c r="E25">
-        <v>0.04980813781525484</v>
+        <v>0.01601990429273947</v>
       </c>
       <c r="F25">
-        <v>6.885560666850381</v>
+        <v>8.221184904678438</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1879502952349554</v>
+        <v>0.1392966225074446</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3687570434240541</v>
+        <v>0.2046244815631724</v>
       </c>
       <c r="M25">
         <v>0</v>
